--- a/src/test/resources/unittesting/artifact/data/unitTest_excel.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_excel.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58532C8-7F96-3D49-AE91-81803315F532}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9531D7DA-C0F8-0B4A-A1FE-FF77E0AD60CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="10520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>true</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>$(syspath|out|fullpath)/output2.json</t>
+  </si>
+  <si>
+    <t>csv output 3</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/output3.csv</t>
+  </si>
+  <si>
+    <t>csv output 3 expected</t>
+  </si>
+  <si>
+    <t>csv output 4</t>
+  </si>
+  <si>
+    <t>csv output 4 expected</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/output4.csv</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/unitTest_excel.output3.expected.csv</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/unitTest_excel.output4.expected.csv</t>
+  </si>
+  <si>
+    <t>csv output 5</t>
+  </si>
+  <si>
+    <t>csv output 5 expected</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/output5.csv</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/unitTest_excel.output5.expected.csv</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/output6.csv</t>
+  </si>
+  <si>
+    <t>csv output 6</t>
   </si>
 </sst>
 </file>
@@ -243,7 +285,258 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -598,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA12"/>
+  <dimension ref="A1:AAA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -729,25 +1022,146 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A1:A12 A14 A17:A1048576">
+    <cfRule type="beginsWith" dxfId="23" priority="20" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="22" priority="21" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B12 B17:B1048576">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="24">
       <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="beginsWith" dxfId="18" priority="15" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="17" priority="16" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="14">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="beginsWith" dxfId="9" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="beginsWith" dxfId="6" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="5" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="7" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(B16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
